--- a/POA TEST DATA/POA first comparision.xlsx
+++ b/POA TEST DATA/POA first comparision.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA38866-44DA-4DA8-B819-EABA3CEFD8F7}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C77281-5A2B-48BC-A03E-5BBD7981E062}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="751" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="751" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Real-poa-pending" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,13 @@
     <sheet name="Simulated-5M-TPS-vs-pending-tx" sheetId="5" r:id="rId5"/>
     <sheet name="Simulated-10M-TPS-vs-pendingtx" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'Simul-poa-pending'!$B$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Simul-poa-pending'!$B$2:$B$240</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Simul-poa-pending'!$B$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Simul-poa-pending'!$B$2:$B$240</definedName>
+  </definedNames>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>Time</t>
   </si>
@@ -61,6 +67,18 @@
   </si>
   <si>
     <t>67tps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Normalized Stability </t>
+  </si>
+  <si>
+    <t>x-min   /</t>
+  </si>
+  <si>
+    <t>max-min</t>
+  </si>
+  <si>
+    <t>Normalized Stability</t>
   </si>
 </sst>
 </file>
@@ -805,6 +823,21 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:trendline>
+            <c:name/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:cat>
             <c:numRef>
               <c:f>'Simul-poa-pending'!$A$2:$A$240</c:f>
@@ -2586,39 +2619,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Simulated:Stability(5=block created,1=block</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> confirmed by all node</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>)</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2663,7 +2663,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Stability</c:v>
+                  <c:v>Normalized Stability</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2780,76 +2780,76 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>5</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>3</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>5</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>3</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>5</c:v>
-                </c:pt>
                 <c:pt idx="17">
-                  <c:v>3</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="20">
-                  <c:v>5</c:v>
-                </c:pt>
                 <c:pt idx="21">
-                  <c:v>3</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2857,7 +2857,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8137-45FE-8D49-F3BF8E7E1127}"/>
+              <c16:uniqueId val="{00000000-C437-4EEE-932F-5B2081437CD1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2869,11 +2869,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="743812408"/>
-        <c:axId val="743817984"/>
+        <c:axId val="225899400"/>
+        <c:axId val="225900712"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="743812408"/>
+        <c:axId val="225899400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2893,61 +2893,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Time</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2985,12 +2930,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="743817984"/>
+        <c:crossAx val="225900712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="743817984"/>
+        <c:axId val="225900712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3010,66 +2955,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Block</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> stability</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3107,7 +2992,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="743812408"/>
+        <c:crossAx val="225899400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -15806,6 +15691,46 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.1</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{CF1792FF-6E6B-4F00-9722-5EFFDE6EBD3D}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:v> pending_transaction</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -15967,6 +15892,46 @@
 </file>
 
 <file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -17039,6 +17004,514 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -17554,7 +18027,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -18070,7 +18543,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -18631,16 +19104,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>329565</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>69532</xdr:rowOff>
+      <xdr:rowOff>98107</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>26670</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>148590</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -18665,6 +19138,84 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>217169</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>88582</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="6" name="Chart 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67330069-A893-413D-8B44-4380D6EC4F1E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7391399" y="2600325"/>
+              <a:ext cx="4404360" cy="1835467"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -18672,23 +19223,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>69532</xdr:rowOff>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>501967</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A25D1609-9BB8-4D51-9581-45072AC7BD22}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04FB6BCA-0078-4B87-A2B8-5A48DEB76360}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19056,7 +19607,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A645"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+    <sheetView topLeftCell="A45" workbookViewId="0">
       <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
@@ -22297,8 +22848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D443A7A-0D88-4766-871B-F2F5AD72E653}">
   <dimension ref="A1:B240"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B240"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24225,217 +24776,326 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{916FCAEB-D284-449A-BD73-7C7BA4510301}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection sqref="A1:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>501</v>
       </c>
       <c r="B2">
+        <f>(C2-1)/4</f>
+        <v>1</v>
+      </c>
+      <c r="C2">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>507</v>
       </c>
       <c r="B3">
+        <f t="shared" ref="B3:B25" si="0">(C3-1)/4</f>
+        <v>0.5</v>
+      </c>
+      <c r="C3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>508</v>
       </c>
       <c r="B4">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="C4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>509</v>
       </c>
       <c r="B5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1002</v>
       </c>
       <c r="B6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1008</v>
       </c>
       <c r="B7">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="C7">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1009</v>
       </c>
       <c r="B8">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="C8">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1010</v>
       </c>
       <c r="B9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1503</v>
       </c>
       <c r="B10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C10">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1509</v>
       </c>
       <c r="B11">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="C11">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1510</v>
       </c>
       <c r="B12">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="C12">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1511</v>
       </c>
       <c r="B13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2004</v>
       </c>
       <c r="B14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C14">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2010</v>
       </c>
       <c r="B15">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="C15">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2011</v>
       </c>
       <c r="B16">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="C16">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2012</v>
       </c>
       <c r="B17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2505</v>
       </c>
       <c r="B18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C18">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2511</v>
       </c>
       <c r="B19">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="C19">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2512</v>
       </c>
       <c r="B20">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="C20">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2513</v>
       </c>
       <c r="B21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>3006</v>
       </c>
       <c r="B22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C22">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>3012</v>
       </c>
       <c r="B23">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="C23">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>3014</v>
       </c>
       <c r="B24">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="C24">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>3015</v>
       </c>
       <c r="B25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C25">
         <v>1</v>
       </c>
     </row>
